--- a/Assets/Editor/Sheets/Items.xlsx
+++ b/Assets/Editor/Sheets/Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\AfterDay\Assets\Editor\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5C8FED-2864-427B-B051-6AB9B3CE6E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B6EC0B-D2C3-450C-9725-287CFE49035D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电池</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,6 +116,10 @@
   </si>
   <si>
     <t>Tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +449,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -466,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -475,7 +475,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
@@ -504,7 +504,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -530,10 +530,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -559,10 +559,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -582,16 +582,16 @@
         <v>20001</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
       </c>
       <c r="F5">
         <v>1</v>

--- a/Assets/Editor/Sheets/Items.xlsx
+++ b/Assets/Editor/Sheets/Items.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\AfterDay\Assets\Editor\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B6EC0B-D2C3-450C-9725-287CFE49035D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B83651-1520-4AFA-BFF3-D7346EB1E42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t xml:space="preserve">ID </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,9 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Energy</t>
-  </si>
-  <si>
     <t>\Art\Tokens</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,10 +96,6 @@
     <t>IT_20001_battery</t>
   </si>
   <si>
-    <t>Tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>标签</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,6 +113,10 @@
   </si>
   <si>
     <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +446,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -466,7 +463,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -475,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
@@ -504,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -530,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -559,10 +556,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -588,10 +585,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -608,11 +605,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5" xr:uid="{ADC603E7-A8B3-45CF-8C8D-45BBFA1CAE31}">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Assets/Editor/Sheets/Items.xlsx
+++ b/Assets/Editor/Sheets/Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\AfterDay\Assets\Editor\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B83651-1520-4AFA-BFF3-D7346EB1E42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A1E553-1533-4A99-ACFA-761CC4D9ED72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t xml:space="preserve">ID </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,7 +116,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2;23</t>
+    <t>食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,10 +451,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -588,7 +596,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -600,6 +608,35 @@
         <v>999</v>
       </c>
       <c r="I5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>999</v>
+      </c>
+      <c r="I6">
         <v>-1</v>
       </c>
     </row>
